--- a/academycity/data/avic/datasets/excel/conference/output/GDP/1992_HighTech_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/1992_HighTech_o.xlsx
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C112" t="n">
